--- a/data/gntm.xlsx
+++ b/data/gntm.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1549574138" val="936" rev="123" rev64="64" revOS="3"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1549574138" fixedDigits="0" showNotice="1" showProtection="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1549574138"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1549574138"/>
+      <pm:revision xmlns:pm="smNativeData" day="1552223055" val="946" rev="123" rev64="64" revOS="3"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1552223055" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1552223055" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1552223055"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="308">
   <si>
     <t>Staffel</t>
   </si>
@@ -73,6 +73,9 @@
     <t>blau</t>
   </si>
   <si>
+    <t>hell</t>
+  </si>
+  <si>
     <t>Yvonne Schröder</t>
   </si>
   <si>
@@ -97,6 +100,9 @@
     <t xml:space="preserve">Luise Mikulla </t>
   </si>
   <si>
+    <t>grau/grün</t>
+  </si>
+  <si>
     <t xml:space="preserve">Micaela Schäfer </t>
   </si>
   <si>
@@ -115,12 +121,21 @@
     <t xml:space="preserve">Barbara Meier </t>
   </si>
   <si>
+    <t>rot</t>
+  </si>
+  <si>
     <t xml:space="preserve">Anni Wendler </t>
   </si>
   <si>
     <t xml:space="preserve">Hana Nitsche </t>
   </si>
   <si>
+    <t>dunkelbraun</t>
+  </si>
+  <si>
+    <t>blau/grün</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fiona Erdmann </t>
   </si>
   <si>
@@ -145,7 +160,7 @@
     <t xml:space="preserve">Alla Kosovan </t>
   </si>
   <si>
-    <t xml:space="preserve">Janina Cüpper </t>
+    <t>Janina-Catharina Küpper</t>
   </si>
   <si>
     <t xml:space="preserve">Antje Pötke </t>
@@ -154,6 +169,9 @@
     <t xml:space="preserve">Enyerlina Sanchez </t>
   </si>
   <si>
+    <t>dunkler teint</t>
+  </si>
+  <si>
     <t xml:space="preserve">Janine Mackenroth </t>
   </si>
   <si>
@@ -169,12 +187,18 @@
     <t xml:space="preserve">Carolin Ruppert </t>
   </si>
   <si>
+    <t>braun/grün</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wanda Badwal </t>
   </si>
   <si>
     <t xml:space="preserve">Gisele Oppermann </t>
   </si>
   <si>
+    <t xml:space="preserve">braun </t>
+  </si>
+  <si>
     <t xml:space="preserve">Raquel Deborah Alvarez </t>
   </si>
   <si>
@@ -217,6 +241,12 @@
     <t xml:space="preserve">Sara Nuru </t>
   </si>
   <si>
+    <t>schwarz</t>
+  </si>
+  <si>
+    <t>dunkel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mandy Bork </t>
   </si>
   <si>
@@ -238,6 +268,9 @@
     <t>Larissa Marolt</t>
   </si>
   <si>
+    <t>blau/grau</t>
+  </si>
+  <si>
     <t xml:space="preserve">Katrina Scharinger </t>
   </si>
   <si>
@@ -277,6 +310,9 @@
     <t xml:space="preserve">Neele Hehemann </t>
   </si>
   <si>
+    <t>grün/grau</t>
+  </si>
+  <si>
     <t xml:space="preserve">Louisa Mazzurana </t>
   </si>
   <si>
@@ -406,6 +442,9 @@
     <t xml:space="preserve">Katarzyna „Kasia“ Lenhardt </t>
   </si>
   <si>
+    <t>dunkelblond</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sara Kulka </t>
   </si>
   <si>
@@ -737,6 +776,9 @@
   </si>
   <si>
     <t xml:space="preserve">Céline Bethmann </t>
+  </si>
+  <si>
+    <t>rotblond</t>
   </si>
   <si>
     <t>Serlina Hohmann</t>
@@ -924,12 +966,12 @@
   <fonts count="2">
     <font>
       <name val="Arial"/>
-      <family val="1"/>
+      <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1549574138" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1552223055" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -944,7 +986,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1549574138" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1552223055" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -966,7 +1008,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1549574138" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1552223055" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -988,7 +1030,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1549574138"/>
+          <pm:border xmlns:pm="smNativeData" id="1552223055"/>
         </ext>
       </extLst>
     </border>
@@ -1007,7 +1049,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1549574138"/>
+          <pm:border xmlns:pm="smNativeData" id="1552223055"/>
         </ext>
       </extLst>
     </border>
@@ -1024,7 +1066,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1549574138" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1552223055" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
     </ext>
@@ -1261,13 +1303,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M278"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="A250" sqref="A250:A278"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="F275" sqref="F275"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
   <cols>
     <col min="2" max="2" width="24.459459" customWidth="1"/>
+    <col min="6" max="6" width="13.243243" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1333,6 +1376,9 @@
       <c r="G2" t="s">
         <v>15</v>
       </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
       <c r="I2" t="n">
         <v>90</v>
       </c>
@@ -1349,12 +1395,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1371,13 +1417,16 @@
       <c r="G3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="n">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1389,7 +1438,10 @@
         <v>178</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1397,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1412,7 +1464,10 @@
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
       </c>
       <c r="I5" t="n">
         <v>85</v>
@@ -1432,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1444,19 +1499,22 @@
         <v>180</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
       </c>
       <c r="I6" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J6" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K6" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L6" t="n">
         <v>36</v>
@@ -1465,12 +1523,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:11">
       <c r="A7" t="n">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -1481,13 +1539,25 @@
       <c r="E7" t="n">
         <v>183</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="n">
+        <v>88</v>
+      </c>
+      <c r="J7" t="n">
+        <v>64</v>
+      </c>
+      <c r="K7" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="n">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
         <v>7</v>
@@ -1498,13 +1568,31 @@
       <c r="E8" t="n">
         <v>175</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="n">
+        <v>86</v>
+      </c>
+      <c r="J8" t="n">
+        <v>66</v>
+      </c>
+      <c r="K8" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="n">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
         <v>8</v>
@@ -1515,13 +1603,25 @@
       <c r="E9" t="n">
         <v>175</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="n">
+        <v>85</v>
+      </c>
+      <c r="J9" t="n">
+        <v>60</v>
+      </c>
+      <c r="K9" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="n">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
         <v>9</v>
@@ -1532,13 +1632,25 @@
       <c r="E10" t="n">
         <v>170</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="n">
+        <v>85</v>
+      </c>
+      <c r="J10" t="n">
+        <v>62</v>
+      </c>
+      <c r="K10" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="n">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
         <v>10</v>
@@ -1549,13 +1661,28 @@
       <c r="E11" t="n">
         <v>182</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="n">
+        <v>90</v>
+      </c>
+      <c r="J11" t="n">
+        <v>62</v>
+      </c>
+      <c r="K11" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="n">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" t="n">
         <v>11</v>
@@ -1564,15 +1691,39 @@
         <v>19</v>
       </c>
       <c r="E12" t="n">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>179</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="n">
+        <v>85</v>
+      </c>
+      <c r="J12" t="n">
+        <v>60</v>
+      </c>
+      <c r="K12" t="n">
+        <v>88</v>
+      </c>
+      <c r="L12" t="n">
+        <v>34</v>
+      </c>
+      <c r="M12" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="n">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
         <v>11</v>
@@ -1583,13 +1734,31 @@
       <c r="E13" t="n">
         <v>175</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="n">
+        <v>81</v>
+      </c>
+      <c r="J13" t="n">
+        <v>62</v>
+      </c>
+      <c r="K13" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="n">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -1600,13 +1769,37 @@
       <c r="E14" t="n">
         <v>174</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="n">
+        <v>81</v>
+      </c>
+      <c r="J14" t="n">
+        <v>61</v>
+      </c>
+      <c r="K14" t="n">
+        <v>94</v>
+      </c>
+      <c r="L14" t="n">
+        <v>36</v>
+      </c>
+      <c r="M14" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="n">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
@@ -1617,13 +1810,31 @@
       <c r="E15" t="n">
         <v>177</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="n">
+        <v>85</v>
+      </c>
+      <c r="J15" t="n">
+        <v>59</v>
+      </c>
+      <c r="K15" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="n">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
@@ -1634,13 +1845,37 @@
       <c r="E16" t="n">
         <v>172</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>59</v>
+      </c>
+      <c r="K16" t="n">
+        <v>89</v>
+      </c>
+      <c r="L16" t="n">
+        <v>36</v>
+      </c>
+      <c r="M16" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="n">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C17" t="n">
         <v>4</v>
@@ -1651,13 +1886,37 @@
       <c r="E17" t="n">
         <v>174</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="n">
+        <v>84</v>
+      </c>
+      <c r="J17" t="n">
+        <v>61</v>
+      </c>
+      <c r="K17" t="n">
+        <v>93</v>
+      </c>
+      <c r="L17" t="n">
+        <v>36</v>
+      </c>
+      <c r="M17" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="n">
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C18" t="n">
         <v>4</v>
@@ -1668,13 +1927,37 @@
       <c r="E18" t="n">
         <v>179</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" t="n">
+        <v>85</v>
+      </c>
+      <c r="J18" t="n">
+        <v>63</v>
+      </c>
+      <c r="K18" t="n">
+        <v>91</v>
+      </c>
+      <c r="L18" t="n">
+        <v>36</v>
+      </c>
+      <c r="M18" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="n">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C19" t="n">
         <v>6</v>
@@ -1685,13 +1968,37 @@
       <c r="E19" t="n">
         <v>183</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" t="n">
+        <v>84</v>
+      </c>
+      <c r="J19" t="n">
+        <v>62</v>
+      </c>
+      <c r="K19" t="n">
+        <v>88</v>
+      </c>
+      <c r="L19" t="n">
+        <v>36</v>
+      </c>
+      <c r="M19" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="n">
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C20" t="n">
         <v>7</v>
@@ -1702,13 +2009,37 @@
       <c r="E20" t="n">
         <v>175</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" t="n">
+        <v>86</v>
+      </c>
+      <c r="J20" t="n">
+        <v>61</v>
+      </c>
+      <c r="K20" t="n">
+        <v>88</v>
+      </c>
+      <c r="L20" t="n">
+        <v>34</v>
+      </c>
+      <c r="M20" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="n">
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C21" t="n">
         <v>8</v>
@@ -1719,13 +2050,31 @@
       <c r="E21" t="n">
         <v>182</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" t="n">
+        <v>89</v>
+      </c>
+      <c r="J21" t="n">
+        <v>69</v>
+      </c>
+      <c r="K21" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="n">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C22" t="n">
         <v>8</v>
@@ -1736,13 +2085,37 @@
       <c r="E22" t="n">
         <v>175</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" t="n">
+        <v>83</v>
+      </c>
+      <c r="J22" t="n">
+        <v>61</v>
+      </c>
+      <c r="K22" t="n">
+        <v>80</v>
+      </c>
+      <c r="L22" t="n">
+        <v>36</v>
+      </c>
+      <c r="M22" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="n">
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C23" t="n">
         <v>10</v>
@@ -1753,13 +2126,31 @@
       <c r="E23" t="n">
         <v>172</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="n">
+        <v>86</v>
+      </c>
+      <c r="J23" t="n">
+        <v>65</v>
+      </c>
+      <c r="K23" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="n">
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C24" t="n">
         <v>11</v>
@@ -1770,13 +2161,31 @@
       <c r="E24" t="n">
         <v>177</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" t="n">
+        <v>85</v>
+      </c>
+      <c r="J24" t="n">
+        <v>66</v>
+      </c>
+      <c r="K24" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="n">
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C25" t="n">
         <v>12</v>
@@ -1787,13 +2196,31 @@
       <c r="E25" t="n">
         <v>183</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" t="n">
+        <v>87</v>
+      </c>
+      <c r="J25" t="n">
+        <v>62</v>
+      </c>
+      <c r="K25" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="n">
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C26" t="n">
         <v>13</v>
@@ -1804,13 +2231,31 @@
       <c r="E26" t="n">
         <v>180</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" t="n">
+        <v>89</v>
+      </c>
+      <c r="J26" t="n">
+        <v>69</v>
+      </c>
+      <c r="K26" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="n">
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C27" t="n">
         <v>15</v>
@@ -1821,13 +2266,31 @@
       <c r="E27" t="n">
         <v>183</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" t="n">
+        <v>87</v>
+      </c>
+      <c r="J27" t="n">
+        <v>65</v>
+      </c>
+      <c r="K27" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="n">
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C28" t="n">
         <v>15</v>
@@ -1838,13 +2301,31 @@
       <c r="E28" t="n">
         <v>173</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" t="n">
+        <v>87</v>
+      </c>
+      <c r="J28" t="n">
+        <v>62</v>
+      </c>
+      <c r="K28" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="n">
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -1855,13 +2336,37 @@
       <c r="E29" t="n">
         <v>180</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" t="n">
+        <v>84</v>
+      </c>
+      <c r="J29" t="n">
+        <v>65</v>
+      </c>
+      <c r="K29" t="n">
+        <v>91</v>
+      </c>
+      <c r="L29" t="n">
+        <v>36</v>
+      </c>
+      <c r="M29" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="n">
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
@@ -1872,13 +2377,37 @@
       <c r="E30" t="n">
         <v>177</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" t="n">
+        <v>85</v>
+      </c>
+      <c r="J30" t="n">
+        <v>61</v>
+      </c>
+      <c r="K30" t="n">
+        <v>90</v>
+      </c>
+      <c r="L30" t="n">
+        <v>36</v>
+      </c>
+      <c r="M30" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="n">
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C31" t="n">
         <v>3</v>
@@ -1889,13 +2418,37 @@
       <c r="E31" t="n">
         <v>175</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" t="n">
+        <v>83</v>
+      </c>
+      <c r="J31" t="n">
+        <v>62</v>
+      </c>
+      <c r="K31" t="n">
+        <v>90</v>
+      </c>
+      <c r="L31" t="n">
+        <v>36</v>
+      </c>
+      <c r="M31" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="n">
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C32" t="n">
         <v>4</v>
@@ -1906,13 +2459,37 @@
       <c r="E32" t="n">
         <v>174</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" t="n">
+        <v>91</v>
+      </c>
+      <c r="J32" t="n">
+        <v>65</v>
+      </c>
+      <c r="K32" t="n">
+        <v>91</v>
+      </c>
+      <c r="L32" t="n">
+        <v>36</v>
+      </c>
+      <c r="M32" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="n">
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C33" t="n">
         <v>4</v>
@@ -1923,13 +2500,37 @@
       <c r="E33" t="n">
         <v>173</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" t="n">
+        <v>83</v>
+      </c>
+      <c r="J33" t="n">
+        <v>61</v>
+      </c>
+      <c r="K33" t="n">
+        <v>88</v>
+      </c>
+      <c r="L33" t="n">
+        <v>36</v>
+      </c>
+      <c r="M33" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="n">
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C34" t="n">
         <v>6</v>
@@ -1940,13 +2541,22 @@
       <c r="E34" t="n">
         <v>174</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="n">
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C35" t="n">
         <v>7</v>
@@ -1957,13 +2567,37 @@
       <c r="E35" t="n">
         <v>180</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" t="n">
+        <v>89</v>
+      </c>
+      <c r="J35" t="n">
+        <v>63</v>
+      </c>
+      <c r="K35" t="n">
+        <v>93</v>
+      </c>
+      <c r="L35" t="n">
+        <v>36</v>
+      </c>
+      <c r="M35" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="n">
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C36" t="n">
         <v>8</v>
@@ -1974,13 +2608,37 @@
       <c r="E36" t="n">
         <v>178</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" t="n">
+        <v>87</v>
+      </c>
+      <c r="J36" t="n">
+        <v>65</v>
+      </c>
+      <c r="K36" t="n">
+        <v>92</v>
+      </c>
+      <c r="L36" t="n">
+        <v>36</v>
+      </c>
+      <c r="M36" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="n">
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C37" t="n">
         <v>9</v>
@@ -1991,13 +2649,37 @@
       <c r="E37" t="n">
         <v>178</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" t="n">
+        <v>86</v>
+      </c>
+      <c r="J37" t="n">
+        <v>61</v>
+      </c>
+      <c r="K37" t="n">
+        <v>90</v>
+      </c>
+      <c r="L37" t="n">
+        <v>36</v>
+      </c>
+      <c r="M37" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="n">
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C38" t="n">
         <v>10</v>
@@ -2008,13 +2690,37 @@
       <c r="E38" t="n">
         <v>179</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" t="n">
+        <v>89</v>
+      </c>
+      <c r="J38" t="n">
+        <v>62</v>
+      </c>
+      <c r="K38" t="n">
+        <v>93</v>
+      </c>
+      <c r="L38" t="n">
+        <v>34</v>
+      </c>
+      <c r="M38" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="n">
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C39" t="n">
         <v>11</v>
@@ -2025,13 +2731,34 @@
       <c r="E39" t="n">
         <v>173</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" t="n">
+        <v>84</v>
+      </c>
+      <c r="J39" t="n">
+        <v>60</v>
+      </c>
+      <c r="K39" t="n">
+        <v>88</v>
+      </c>
+      <c r="M39" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="n">
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C40" t="n">
         <v>12</v>
@@ -2041,6 +2768,12 @@
       </c>
       <c r="E40" t="n">
         <v>171</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2048,7 +2781,7 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C41" t="n">
         <v>12</v>
@@ -2065,7 +2798,7 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C42" t="n">
         <v>14</v>
@@ -2082,7 +2815,7 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C43" t="n">
         <v>15</v>
@@ -2099,7 +2832,7 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C44" t="n">
         <v>15</v>
@@ -2116,7 +2849,7 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C45" t="n">
         <v>17</v>
@@ -2133,7 +2866,7 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C46" t="n">
         <v>17</v>
@@ -2150,7 +2883,7 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C47" t="n">
         <v>17</v>
@@ -2162,12 +2895,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:13">
       <c r="A48" t="n">
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -2178,13 +2911,37 @@
       <c r="E48" t="n">
         <v>176</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" t="s">
+        <v>72</v>
+      </c>
+      <c r="G48" t="s">
+        <v>57</v>
+      </c>
+      <c r="H48" t="s">
+        <v>73</v>
+      </c>
+      <c r="I48" t="n">
+        <v>78</v>
+      </c>
+      <c r="J48" t="n">
+        <v>62</v>
+      </c>
+      <c r="K48" t="n">
+        <v>93</v>
+      </c>
+      <c r="L48" t="n">
+        <v>34</v>
+      </c>
+      <c r="M48" t="n">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="n">
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C49" t="n">
         <v>2</v>
@@ -2195,13 +2952,37 @@
       <c r="E49" t="n">
         <v>175</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" t="n">
+        <v>80</v>
+      </c>
+      <c r="J49" t="n">
+        <v>60</v>
+      </c>
+      <c r="K49" t="n">
+        <v>85</v>
+      </c>
+      <c r="L49" t="n">
+        <v>36</v>
+      </c>
+      <c r="M49" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="n">
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C50" t="n">
         <v>3</v>
@@ -2212,13 +2993,37 @@
       <c r="E50" t="n">
         <v>177</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50" t="s">
+        <v>35</v>
+      </c>
+      <c r="G50" t="s">
+        <v>36</v>
+      </c>
+      <c r="H50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" t="n">
+        <v>85</v>
+      </c>
+      <c r="J50" t="n">
+        <v>65</v>
+      </c>
+      <c r="K50" t="n">
+        <v>94</v>
+      </c>
+      <c r="L50" t="n">
+        <v>36</v>
+      </c>
+      <c r="M50" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="n">
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C51" t="n">
         <v>4</v>
@@ -2229,13 +3034,31 @@
       <c r="E51" t="n">
         <v>177</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" t="n">
+        <v>80</v>
+      </c>
+      <c r="J51" t="n">
+        <v>65</v>
+      </c>
+      <c r="K51" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="n">
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C52" t="n">
         <v>4</v>
@@ -2246,13 +3069,31 @@
       <c r="E52" t="n">
         <v>179</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52" t="s">
+        <v>35</v>
+      </c>
+      <c r="G52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" t="n">
+        <v>82</v>
+      </c>
+      <c r="J52" t="n">
+        <v>66</v>
+      </c>
+      <c r="K52" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="n">
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C53" t="n">
         <v>6</v>
@@ -2263,13 +3104,37 @@
       <c r="E53" t="n">
         <v>174</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" t="n">
+        <v>86</v>
+      </c>
+      <c r="J53" t="n">
+        <v>62</v>
+      </c>
+      <c r="K53" t="n">
+        <v>93</v>
+      </c>
+      <c r="L53" t="n">
+        <v>36</v>
+      </c>
+      <c r="M53" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="n">
         <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C54" t="n">
         <v>7</v>
@@ -2280,13 +3145,31 @@
       <c r="E54" t="n">
         <v>178</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" t="s">
+        <v>57</v>
+      </c>
+      <c r="H54" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" t="n">
+        <v>84</v>
+      </c>
+      <c r="J54" t="n">
+        <v>68</v>
+      </c>
+      <c r="K54" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="n">
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C55" t="n">
         <v>8</v>
@@ -2297,13 +3180,37 @@
       <c r="E55" t="n">
         <v>175</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s">
+        <v>81</v>
+      </c>
+      <c r="H55" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" t="n">
+        <v>87</v>
+      </c>
+      <c r="J55" t="n">
+        <v>63</v>
+      </c>
+      <c r="K55" t="n">
+        <v>87</v>
+      </c>
+      <c r="L55" t="n">
+        <v>36</v>
+      </c>
+      <c r="M55" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="n">
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C56" t="n">
         <v>9</v>
@@ -2314,13 +3221,31 @@
       <c r="E56" t="n">
         <v>179</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" t="n">
+        <v>85</v>
+      </c>
+      <c r="J56" t="n">
+        <v>66</v>
+      </c>
+      <c r="K56" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="n">
         <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C57" t="n">
         <v>10</v>
@@ -2331,13 +3256,31 @@
       <c r="E57" t="n">
         <v>180</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" t="n">
+        <v>79</v>
+      </c>
+      <c r="J57" t="n">
+        <v>62</v>
+      </c>
+      <c r="K57" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="n">
         <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C58" t="n">
         <v>11</v>
@@ -2348,13 +3291,31 @@
       <c r="E58" t="n">
         <v>177</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" t="s">
+        <v>57</v>
+      </c>
+      <c r="H58" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" t="n">
+        <v>84</v>
+      </c>
+      <c r="J58" t="n">
+        <v>66</v>
+      </c>
+      <c r="K58" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="n">
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C59" t="n">
         <v>11</v>
@@ -2365,13 +3326,31 @@
       <c r="E59" t="n">
         <v>175</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" t="n">
+        <v>84</v>
+      </c>
+      <c r="J59" t="n">
+        <v>63</v>
+      </c>
+      <c r="K59" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="n">
         <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C60" t="n">
         <v>13</v>
@@ -2382,13 +3361,31 @@
       <c r="E60" t="n">
         <v>177</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" t="n">
+        <v>82</v>
+      </c>
+      <c r="J60" t="n">
+        <v>63</v>
+      </c>
+      <c r="K60" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="n">
         <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C61" t="n">
         <v>14</v>
@@ -2399,13 +3396,31 @@
       <c r="E61" t="n">
         <v>180</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" t="n">
+        <v>86</v>
+      </c>
+      <c r="J61" t="n">
+        <v>68</v>
+      </c>
+      <c r="K61" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" t="n">
         <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C62" t="n">
         <v>15</v>
@@ -2416,13 +3431,31 @@
       <c r="E62" t="n">
         <v>177</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" t="s">
+        <v>57</v>
+      </c>
+      <c r="H62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" t="n">
+        <v>93</v>
+      </c>
+      <c r="J62" t="n">
+        <v>66</v>
+      </c>
+      <c r="K62" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" t="n">
         <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C63" t="n">
         <v>15</v>
@@ -2433,13 +3466,31 @@
       <c r="E63" t="n">
         <v>173</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" t="n">
+        <v>80</v>
+      </c>
+      <c r="J63" t="n">
+        <v>64</v>
+      </c>
+      <c r="K63" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" t="n">
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C64" t="n">
         <v>15</v>
@@ -2450,13 +3501,31 @@
       <c r="E64" t="n">
         <v>181</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" t="n">
+        <v>84</v>
+      </c>
+      <c r="J64" t="n">
+        <v>66</v>
+      </c>
+      <c r="K64" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" t="n">
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -2467,13 +3536,37 @@
       <c r="E65" t="n">
         <v>178</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" t="s">
+        <v>57</v>
+      </c>
+      <c r="H65" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" t="n">
+        <v>79</v>
+      </c>
+      <c r="J65" t="n">
+        <v>71</v>
+      </c>
+      <c r="K65" t="n">
+        <v>89</v>
+      </c>
+      <c r="L65" t="n">
+        <v>36</v>
+      </c>
+      <c r="M65" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="n">
         <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C66" t="n">
         <v>2</v>
@@ -2484,13 +3577,34 @@
       <c r="E66" t="n">
         <v>173</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" t="n">
+        <v>84</v>
+      </c>
+      <c r="J66" t="n">
+        <v>63</v>
+      </c>
+      <c r="K66" t="n">
+        <v>90</v>
+      </c>
+      <c r="M66" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" t="n">
         <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C67" t="n">
         <v>3</v>
@@ -2501,13 +3615,34 @@
       <c r="E67" t="n">
         <v>175</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" t="n">
+        <v>80</v>
+      </c>
+      <c r="J67" t="n">
+        <v>60</v>
+      </c>
+      <c r="K67" t="n">
+        <v>89</v>
+      </c>
+      <c r="M67" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" t="n">
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C68" t="n">
         <v>4</v>
@@ -2518,13 +3653,37 @@
       <c r="E68" t="n">
         <v>182</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" t="s">
+        <v>95</v>
+      </c>
+      <c r="H68" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" t="n">
+        <v>81</v>
+      </c>
+      <c r="J68" t="n">
+        <v>60</v>
+      </c>
+      <c r="K68" t="n">
+        <v>92</v>
+      </c>
+      <c r="L68" t="n">
+        <v>36</v>
+      </c>
+      <c r="M68" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" t="n">
         <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C69" t="n">
         <v>5</v>
@@ -2535,13 +3694,34 @@
       <c r="E69" t="n">
         <v>170</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" t="n">
+        <v>83</v>
+      </c>
+      <c r="J69" t="n">
+        <v>60</v>
+      </c>
+      <c r="K69" t="n">
+        <v>89</v>
+      </c>
+      <c r="M69" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" t="n">
         <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C70" t="n">
         <v>6</v>
@@ -2552,13 +3732,34 @@
       <c r="E70" t="n">
         <v>180</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70" t="s">
+        <v>57</v>
+      </c>
+      <c r="H70" t="s">
+        <v>73</v>
+      </c>
+      <c r="I70" t="n">
+        <v>80</v>
+      </c>
+      <c r="J70" t="n">
+        <v>63</v>
+      </c>
+      <c r="K70" t="n">
+        <v>84</v>
+      </c>
+      <c r="M70" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" t="n">
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C71" t="n">
         <v>6</v>
@@ -2569,13 +3770,34 @@
       <c r="E71" t="n">
         <v>180</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" t="n">
+        <v>86</v>
+      </c>
+      <c r="J71" t="n">
+        <v>71</v>
+      </c>
+      <c r="K71" t="n">
+        <v>91</v>
+      </c>
+      <c r="M71" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" t="n">
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C72" t="n">
         <v>8</v>
@@ -2586,13 +3808,34 @@
       <c r="E72" t="n">
         <v>178</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" t="s">
+        <v>57</v>
+      </c>
+      <c r="H72" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" t="n">
+        <v>87</v>
+      </c>
+      <c r="J72" t="n">
+        <v>64</v>
+      </c>
+      <c r="K72" t="n">
+        <v>94</v>
+      </c>
+      <c r="M72" t="n">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" t="n">
         <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C73" t="n">
         <v>9</v>
@@ -2603,13 +3846,34 @@
       <c r="E73" t="n">
         <v>180</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73" t="s">
+        <v>57</v>
+      </c>
+      <c r="H73" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" t="n">
+        <v>83</v>
+      </c>
+      <c r="J73" t="n">
+        <v>66</v>
+      </c>
+      <c r="K73" t="n">
+        <v>87</v>
+      </c>
+      <c r="M73" t="n">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" t="n">
         <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C74" t="n">
         <v>10</v>
@@ -2619,6 +3883,27 @@
       </c>
       <c r="E74" t="n">
         <v>179</v>
+      </c>
+      <c r="F74" t="s">
+        <v>19</v>
+      </c>
+      <c r="G74" t="s">
+        <v>21</v>
+      </c>
+      <c r="H74" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" t="n">
+        <v>88</v>
+      </c>
+      <c r="J74" t="n">
+        <v>64</v>
+      </c>
+      <c r="K74" t="n">
+        <v>93</v>
+      </c>
+      <c r="M74" t="n">
+        <v>40.5</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2626,7 +3911,7 @@
         <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C75" t="n">
         <v>11</v>
@@ -2638,12 +3923,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:13">
       <c r="A76" t="n">
         <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C76" t="n">
         <v>12</v>
@@ -2654,13 +3939,34 @@
       <c r="E76" t="n">
         <v>180</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" t="n">
+        <v>85</v>
+      </c>
+      <c r="J76" t="n">
+        <v>65</v>
+      </c>
+      <c r="K76" t="n">
+        <v>84</v>
+      </c>
+      <c r="M76" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" t="n">
         <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C77" t="n">
         <v>12</v>
@@ -2671,13 +3977,34 @@
       <c r="E77" t="n">
         <v>180</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" t="n">
+        <v>83</v>
+      </c>
+      <c r="J77" t="n">
+        <v>62</v>
+      </c>
+      <c r="K77" t="n">
+        <v>90</v>
+      </c>
+      <c r="M77" t="n">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" t="n">
         <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C78" t="n">
         <v>14</v>
@@ -2688,13 +4015,34 @@
       <c r="E78" t="n">
         <v>176</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78" t="s">
+        <v>19</v>
+      </c>
+      <c r="G78" t="s">
+        <v>57</v>
+      </c>
+      <c r="H78" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78" t="n">
+        <v>88</v>
+      </c>
+      <c r="J78" t="n">
+        <v>69</v>
+      </c>
+      <c r="K78" t="n">
+        <v>94</v>
+      </c>
+      <c r="M78" t="n">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" t="n">
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C79" t="n">
         <v>15</v>
@@ -2705,13 +4053,34 @@
       <c r="E79" t="n">
         <v>180</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79" t="s">
+        <v>19</v>
+      </c>
+      <c r="G79" t="s">
+        <v>21</v>
+      </c>
+      <c r="H79" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" t="n">
+        <v>87</v>
+      </c>
+      <c r="J79" t="n">
+        <v>66</v>
+      </c>
+      <c r="K79" t="n">
+        <v>96</v>
+      </c>
+      <c r="M79" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" t="n">
         <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C80" t="n">
         <v>16</v>
@@ -2722,13 +4091,34 @@
       <c r="E80" t="n">
         <v>179</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s">
+        <v>57</v>
+      </c>
+      <c r="H80" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" t="n">
+        <v>90</v>
+      </c>
+      <c r="J80" t="n">
+        <v>69</v>
+      </c>
+      <c r="K80" t="n">
+        <v>95</v>
+      </c>
+      <c r="M80" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" t="n">
         <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C81" t="n">
         <v>16</v>
@@ -2739,13 +4129,34 @@
       <c r="E81" t="n">
         <v>177</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" t="s">
+        <v>16</v>
+      </c>
+      <c r="I81" t="n">
+        <v>89</v>
+      </c>
+      <c r="J81" t="n">
+        <v>64</v>
+      </c>
+      <c r="K81" t="n">
+        <v>89</v>
+      </c>
+      <c r="M81" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" t="n">
         <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C82" t="n">
         <v>18</v>
@@ -2756,13 +4167,34 @@
       <c r="E82" t="n">
         <v>180</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82" t="s">
+        <v>19</v>
+      </c>
+      <c r="G82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H82" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82" t="n">
+        <v>81</v>
+      </c>
+      <c r="J82" t="n">
+        <v>63</v>
+      </c>
+      <c r="K82" t="n">
+        <v>96</v>
+      </c>
+      <c r="M82" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" t="n">
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
@@ -2773,13 +4205,31 @@
       <c r="E83" t="n">
         <v>173</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83" t="s">
+        <v>19</v>
+      </c>
+      <c r="G83" t="s">
+        <v>57</v>
+      </c>
+      <c r="H83" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" t="n">
+        <v>88</v>
+      </c>
+      <c r="J83" t="n">
+        <v>58</v>
+      </c>
+      <c r="K83" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" t="n">
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C84" t="n">
         <v>2</v>
@@ -2790,13 +4240,31 @@
       <c r="E84" t="n">
         <v>178</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G84" t="s">
+        <v>57</v>
+      </c>
+      <c r="H84" t="s">
+        <v>48</v>
+      </c>
+      <c r="I84" t="n">
+        <v>86</v>
+      </c>
+      <c r="J84" t="n">
+        <v>62</v>
+      </c>
+      <c r="K84" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" t="n">
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C85" t="n">
         <v>3</v>
@@ -2807,13 +4275,31 @@
       <c r="E85" t="n">
         <v>173</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s">
+        <v>15</v>
+      </c>
+      <c r="H85" t="s">
+        <v>16</v>
+      </c>
+      <c r="I85" t="n">
+        <v>84</v>
+      </c>
+      <c r="J85" t="n">
+        <v>63</v>
+      </c>
+      <c r="K85" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" t="n">
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C86" t="n">
         <v>4</v>
@@ -2824,13 +4310,31 @@
       <c r="E86" t="n">
         <v>176</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86" t="s">
+        <v>19</v>
+      </c>
+      <c r="G86" t="s">
+        <v>57</v>
+      </c>
+      <c r="H86" t="s">
+        <v>48</v>
+      </c>
+      <c r="I86" t="n">
+        <v>83</v>
+      </c>
+      <c r="J86" t="n">
+        <v>61</v>
+      </c>
+      <c r="K86" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" t="n">
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C87" t="n">
         <v>4</v>
@@ -2841,13 +4345,31 @@
       <c r="E87" t="n">
         <v>172</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" t="s">
+        <v>16</v>
+      </c>
+      <c r="I87" t="n">
+        <v>80</v>
+      </c>
+      <c r="J87" t="n">
+        <v>65</v>
+      </c>
+      <c r="K87" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" t="n">
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C88" t="n">
         <v>6</v>
@@ -2858,13 +4380,31 @@
       <c r="E88" t="n">
         <v>171</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88" t="s">
+        <v>72</v>
+      </c>
+      <c r="G88" t="s">
+        <v>57</v>
+      </c>
+      <c r="H88" t="s">
+        <v>16</v>
+      </c>
+      <c r="I88" t="n">
+        <v>71</v>
+      </c>
+      <c r="J88" t="n">
+        <v>56</v>
+      </c>
+      <c r="K88" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" t="n">
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C89" t="n">
         <v>7</v>
@@ -2875,13 +4415,31 @@
       <c r="E89" t="n">
         <v>178</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89" t="s">
+        <v>19</v>
+      </c>
+      <c r="G89" t="s">
+        <v>57</v>
+      </c>
+      <c r="H89" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" t="n">
+        <v>82</v>
+      </c>
+      <c r="J89" t="n">
+        <v>64</v>
+      </c>
+      <c r="K89" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" t="n">
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C90" t="n">
         <v>8</v>
@@ -2892,13 +4450,31 @@
       <c r="E90" t="n">
         <v>173</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="F90" t="s">
+        <v>35</v>
+      </c>
+      <c r="G90" t="s">
+        <v>57</v>
+      </c>
+      <c r="H90" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" t="n">
+        <v>82</v>
+      </c>
+      <c r="J90" t="n">
+        <v>61</v>
+      </c>
+      <c r="K90" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" t="n">
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C91" t="n">
         <v>9</v>
@@ -2909,13 +4485,31 @@
       <c r="E91" t="n">
         <v>174</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91" t="s">
+        <v>19</v>
+      </c>
+      <c r="G91" t="s">
+        <v>21</v>
+      </c>
+      <c r="H91" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" t="n">
+        <v>89</v>
+      </c>
+      <c r="J91" t="n">
+        <v>65</v>
+      </c>
+      <c r="K91" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" t="n">
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C92" t="n">
         <v>10</v>
@@ -2926,13 +4520,31 @@
       <c r="E92" t="n">
         <v>172</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" t="s">
+        <v>15</v>
+      </c>
+      <c r="H92" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92" t="n">
+        <v>86</v>
+      </c>
+      <c r="J92" t="n">
+        <v>61</v>
+      </c>
+      <c r="K92" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" t="n">
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C93" t="n">
         <v>11</v>
@@ -2943,13 +4555,31 @@
       <c r="E93" t="n">
         <v>178</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="F93" t="s">
+        <v>19</v>
+      </c>
+      <c r="G93" t="s">
+        <v>15</v>
+      </c>
+      <c r="H93" t="s">
+        <v>16</v>
+      </c>
+      <c r="I93" t="n">
+        <v>80</v>
+      </c>
+      <c r="J93" t="n">
+        <v>60</v>
+      </c>
+      <c r="K93" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" t="n">
         <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C94" t="n">
         <v>11</v>
@@ -2960,13 +4590,31 @@
       <c r="E94" t="n">
         <v>180</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="F94" t="s">
+        <v>19</v>
+      </c>
+      <c r="G94" t="s">
+        <v>21</v>
+      </c>
+      <c r="H94" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" t="n">
+        <v>83</v>
+      </c>
+      <c r="J94" t="n">
+        <v>61</v>
+      </c>
+      <c r="K94" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" t="n">
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C95" t="n">
         <v>13</v>
@@ -2977,13 +4625,31 @@
       <c r="E95" t="n">
         <v>176</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95" t="s">
+        <v>19</v>
+      </c>
+      <c r="G95" t="s">
+        <v>57</v>
+      </c>
+      <c r="H95" t="s">
+        <v>16</v>
+      </c>
+      <c r="I95" t="n">
+        <v>81</v>
+      </c>
+      <c r="J95" t="n">
+        <v>66</v>
+      </c>
+      <c r="K95" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" t="n">
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C96" t="n">
         <v>14</v>
@@ -2994,13 +4660,31 @@
       <c r="E96" t="n">
         <v>173</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96" t="s">
+        <v>19</v>
+      </c>
+      <c r="G96" t="s">
+        <v>15</v>
+      </c>
+      <c r="H96" t="s">
+        <v>16</v>
+      </c>
+      <c r="I96" t="n">
+        <v>82</v>
+      </c>
+      <c r="J96" t="n">
+        <v>62</v>
+      </c>
+      <c r="K96" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" t="n">
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C97" t="n">
         <v>14</v>
@@ -3011,13 +4695,31 @@
       <c r="E97" t="n">
         <v>173</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97" t="s">
+        <v>19</v>
+      </c>
+      <c r="G97" t="s">
+        <v>15</v>
+      </c>
+      <c r="H97" t="s">
+        <v>16</v>
+      </c>
+      <c r="I97" t="n">
+        <v>86</v>
+      </c>
+      <c r="J97" t="n">
+        <v>64</v>
+      </c>
+      <c r="K97" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" t="n">
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C98" t="n">
         <v>16</v>
@@ -3028,13 +4730,37 @@
       <c r="E98" t="n">
         <v>179</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="F98" t="s">
+        <v>19</v>
+      </c>
+      <c r="G98" t="s">
+        <v>21</v>
+      </c>
+      <c r="H98" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" t="n">
+        <v>88</v>
+      </c>
+      <c r="J98" t="n">
+        <v>66</v>
+      </c>
+      <c r="K98" t="n">
+        <v>90</v>
+      </c>
+      <c r="L98" t="n">
+        <v>34</v>
+      </c>
+      <c r="M98" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" t="n">
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C99" t="n">
         <v>17</v>
@@ -3045,13 +4771,31 @@
       <c r="E99" t="n">
         <v>174</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s">
+        <v>57</v>
+      </c>
+      <c r="H99" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" t="n">
+        <v>81</v>
+      </c>
+      <c r="J99" t="n">
+        <v>61</v>
+      </c>
+      <c r="K99" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" t="n">
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C100" t="n">
         <v>18</v>
@@ -3062,13 +4806,31 @@
       <c r="E100" t="n">
         <v>177</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100" t="s">
+        <v>19</v>
+      </c>
+      <c r="G100" t="s">
+        <v>15</v>
+      </c>
+      <c r="H100" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" t="n">
+        <v>83</v>
+      </c>
+      <c r="J100" t="n">
+        <v>62</v>
+      </c>
+      <c r="K100" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" t="n">
         <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C101" t="n">
         <v>19</v>
@@ -3079,13 +4841,31 @@
       <c r="E101" t="n">
         <v>174</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="F101" t="s">
+        <v>35</v>
+      </c>
+      <c r="G101" t="s">
+        <v>57</v>
+      </c>
+      <c r="H101" t="s">
+        <v>48</v>
+      </c>
+      <c r="I101" t="n">
+        <v>76</v>
+      </c>
+      <c r="J101" t="n">
+        <v>58</v>
+      </c>
+      <c r="K101" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" t="n">
         <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C102" t="n">
         <v>20</v>
@@ -3096,13 +4876,31 @@
       <c r="E102" t="n">
         <v>173</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" t="n">
+        <v>79</v>
+      </c>
+      <c r="J102" t="n">
+        <v>60</v>
+      </c>
+      <c r="K102" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" t="n">
         <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C103" t="n">
         <v>21</v>
@@ -3113,13 +4911,31 @@
       <c r="E103" t="n">
         <v>177</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103" t="s">
+        <v>35</v>
+      </c>
+      <c r="G103" t="s">
+        <v>57</v>
+      </c>
+      <c r="H103" t="s">
+        <v>48</v>
+      </c>
+      <c r="I103" t="n">
+        <v>82</v>
+      </c>
+      <c r="J103" t="n">
+        <v>64</v>
+      </c>
+      <c r="K103" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" t="n">
         <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C104" t="n">
         <v>22</v>
@@ -3130,13 +4946,31 @@
       <c r="E104" t="n">
         <v>171</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="F104" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104" t="s">
+        <v>16</v>
+      </c>
+      <c r="I104" t="n">
+        <v>87</v>
+      </c>
+      <c r="J104" t="n">
+        <v>66</v>
+      </c>
+      <c r="K104" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" t="n">
         <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C105" t="n">
         <v>23</v>
@@ -3147,13 +4981,31 @@
       <c r="E105" t="n">
         <v>176</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="F105" t="s">
+        <v>19</v>
+      </c>
+      <c r="G105" t="s">
+        <v>57</v>
+      </c>
+      <c r="H105" t="s">
+        <v>16</v>
+      </c>
+      <c r="I105" t="n">
+        <v>91</v>
+      </c>
+      <c r="J105" t="n">
+        <v>68</v>
+      </c>
+      <c r="K105" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" t="n">
         <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C106" t="n">
         <v>24</v>
@@ -3164,13 +5016,31 @@
       <c r="E106" t="n">
         <v>174</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="F106" t="s">
+        <v>19</v>
+      </c>
+      <c r="G106" t="s">
+        <v>21</v>
+      </c>
+      <c r="H106" t="s">
+        <v>16</v>
+      </c>
+      <c r="I106" t="n">
+        <v>81</v>
+      </c>
+      <c r="J106" t="n">
+        <v>65</v>
+      </c>
+      <c r="K106" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" t="n">
         <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C107" t="n">
         <v>24</v>
@@ -3181,13 +5051,31 @@
       <c r="E107" t="n">
         <v>173</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="F107" t="s">
+        <v>19</v>
+      </c>
+      <c r="G107" t="s">
+        <v>15</v>
+      </c>
+      <c r="H107" t="s">
+        <v>16</v>
+      </c>
+      <c r="I107" t="n">
+        <v>82</v>
+      </c>
+      <c r="J107" t="n">
+        <v>61</v>
+      </c>
+      <c r="K107" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" t="n">
         <v>7</v>
       </c>
       <c r="B108" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C108" t="n">
         <v>1</v>
@@ -3197,6 +5085,15 @@
       </c>
       <c r="E108" t="n">
         <v>178</v>
+      </c>
+      <c r="F108" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108" t="s">
+        <v>21</v>
+      </c>
+      <c r="H108" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3204,7 +5101,7 @@
         <v>7</v>
       </c>
       <c r="B109" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C109" t="n">
         <v>2</v>
@@ -3221,7 +5118,7 @@
         <v>7</v>
       </c>
       <c r="B110" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="C110" t="n">
         <v>3</v>
@@ -3233,12 +5130,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:13">
       <c r="A111" t="n">
         <v>7</v>
       </c>
       <c r="B111" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C111" t="n">
         <v>4</v>
@@ -3249,13 +5146,37 @@
       <c r="E111" t="n">
         <v>173</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="F111" t="s">
+        <v>139</v>
+      </c>
+      <c r="G111" t="s">
+        <v>15</v>
+      </c>
+      <c r="H111" t="s">
+        <v>16</v>
+      </c>
+      <c r="I111" t="n">
+        <v>90</v>
+      </c>
+      <c r="J111" t="n">
+        <v>64</v>
+      </c>
+      <c r="K111" t="n">
+        <v>93</v>
+      </c>
+      <c r="L111" t="n">
+        <v>34</v>
+      </c>
+      <c r="M111" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" t="n">
         <v>7</v>
       </c>
       <c r="B112" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C112" t="n">
         <v>5</v>
@@ -3265,6 +5186,30 @@
       </c>
       <c r="E112" t="n">
         <v>174</v>
+      </c>
+      <c r="F112" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112" t="s">
+        <v>36</v>
+      </c>
+      <c r="H112" t="s">
+        <v>16</v>
+      </c>
+      <c r="I112" t="n">
+        <v>92</v>
+      </c>
+      <c r="J112" t="n">
+        <v>64</v>
+      </c>
+      <c r="K112" t="n">
+        <v>92</v>
+      </c>
+      <c r="L112" t="n">
+        <v>36</v>
+      </c>
+      <c r="M112" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3272,7 +5217,7 @@
         <v>7</v>
       </c>
       <c r="B113" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C113" t="n">
         <v>6</v>
@@ -3289,7 +5234,7 @@
         <v>7</v>
       </c>
       <c r="B114" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C114" t="n">
         <v>7</v>
@@ -3306,7 +5251,7 @@
         <v>7</v>
       </c>
       <c r="B115" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C115" t="n">
         <v>8</v>
@@ -3323,7 +5268,7 @@
         <v>7</v>
       </c>
       <c r="B116" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C116" t="n">
         <v>9</v>
@@ -3340,7 +5285,7 @@
         <v>7</v>
       </c>
       <c r="B117" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="C117" t="n">
         <v>10</v>
@@ -3357,7 +5302,7 @@
         <v>7</v>
       </c>
       <c r="B118" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C118" t="n">
         <v>11</v>
@@ -3369,12 +5314,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:13">
       <c r="A119" t="n">
         <v>7</v>
       </c>
       <c r="B119" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C119" t="n">
         <v>12</v>
@@ -3384,6 +5329,30 @@
       </c>
       <c r="E119" t="n">
         <v>175</v>
+      </c>
+      <c r="F119" t="s">
+        <v>19</v>
+      </c>
+      <c r="G119" t="s">
+        <v>57</v>
+      </c>
+      <c r="H119" t="s">
+        <v>16</v>
+      </c>
+      <c r="I119" t="n">
+        <v>90</v>
+      </c>
+      <c r="J119" t="n">
+        <v>65</v>
+      </c>
+      <c r="K119" t="n">
+        <v>93</v>
+      </c>
+      <c r="L119" t="n">
+        <v>34</v>
+      </c>
+      <c r="M119" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3391,7 +5360,7 @@
         <v>7</v>
       </c>
       <c r="B120" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C120" t="n">
         <v>13</v>
@@ -3408,7 +5377,7 @@
         <v>7</v>
       </c>
       <c r="B121" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C121" t="n">
         <v>14</v>
@@ -3425,7 +5394,7 @@
         <v>7</v>
       </c>
       <c r="B122" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="C122" t="n">
         <v>15</v>
@@ -3442,7 +5411,7 @@
         <v>7</v>
       </c>
       <c r="B123" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="C123" t="n">
         <v>16</v>
@@ -3459,7 +5428,7 @@
         <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C124" t="n">
         <v>16</v>
@@ -3476,7 +5445,7 @@
         <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C125" t="n">
         <v>18</v>
@@ -3493,7 +5462,7 @@
         <v>7</v>
       </c>
       <c r="B126" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C126" t="n">
         <v>19</v>
@@ -3510,7 +5479,7 @@
         <v>7</v>
       </c>
       <c r="B127" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="C127" t="n">
         <v>19</v>
@@ -3527,7 +5496,7 @@
         <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="C128" t="n">
         <v>19</v>
@@ -3539,12 +5508,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:13">
       <c r="A129" t="n">
         <v>7</v>
       </c>
       <c r="B129" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C129" t="n">
         <v>19</v>
@@ -3555,13 +5524,37 @@
       <c r="E129" t="n">
         <v>175</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="F129" t="s">
+        <v>14</v>
+      </c>
+      <c r="G129" t="s">
+        <v>81</v>
+      </c>
+      <c r="H129" t="s">
+        <v>16</v>
+      </c>
+      <c r="I129" t="n">
+        <v>83</v>
+      </c>
+      <c r="J129" t="n">
+        <v>65</v>
+      </c>
+      <c r="K129" t="n">
+        <v>89</v>
+      </c>
+      <c r="L129" t="n">
+        <v>34</v>
+      </c>
+      <c r="M129" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" t="n">
         <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C130" t="n">
         <v>1</v>
@@ -3571,6 +5564,30 @@
       </c>
       <c r="E130" t="n">
         <v>178</v>
+      </c>
+      <c r="F130" t="s">
+        <v>19</v>
+      </c>
+      <c r="G130" t="s">
+        <v>57</v>
+      </c>
+      <c r="H130" t="s">
+        <v>48</v>
+      </c>
+      <c r="I130" t="n">
+        <v>87</v>
+      </c>
+      <c r="J130" t="n">
+        <v>66</v>
+      </c>
+      <c r="K130" t="n">
+        <v>94</v>
+      </c>
+      <c r="L130" t="n">
+        <v>36</v>
+      </c>
+      <c r="M130" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3578,7 +5595,7 @@
         <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C131" t="n">
         <v>2</v>
@@ -3595,7 +5612,7 @@
         <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C132" t="n">
         <v>3</v>
@@ -3612,7 +5629,7 @@
         <v>8</v>
       </c>
       <c r="B133" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C133" t="n">
         <v>4</v>
@@ -3629,7 +5646,7 @@
         <v>8</v>
       </c>
       <c r="B134" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C134" t="n">
         <v>5</v>
@@ -3646,7 +5663,7 @@
         <v>8</v>
       </c>
       <c r="B135" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C135" t="n">
         <v>6</v>
@@ -3663,7 +5680,7 @@
         <v>8</v>
       </c>
       <c r="B136" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C136" t="n">
         <v>7</v>
@@ -3680,7 +5697,7 @@
         <v>8</v>
       </c>
       <c r="B137" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C137" t="n">
         <v>8</v>
@@ -3697,7 +5714,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="C138" t="n">
         <v>9</v>
@@ -3714,7 +5731,7 @@
         <v>8</v>
       </c>
       <c r="B139" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="C139" t="n">
         <v>10</v>
@@ -3731,7 +5748,7 @@
         <v>8</v>
       </c>
       <c r="B140" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="C140" t="n">
         <v>11</v>
@@ -3748,7 +5765,7 @@
         <v>8</v>
       </c>
       <c r="B141" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="C141" t="n">
         <v>12</v>
@@ -3765,7 +5782,7 @@
         <v>8</v>
       </c>
       <c r="B142" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="C142" t="n">
         <v>13</v>
@@ -3782,7 +5799,7 @@
         <v>8</v>
       </c>
       <c r="B143" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="C143" t="n">
         <v>14</v>
@@ -3799,7 +5816,7 @@
         <v>8</v>
       </c>
       <c r="B144" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="C144" t="n">
         <v>15</v>
@@ -3811,12 +5828,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:13">
       <c r="A145" t="n">
         <v>8</v>
       </c>
       <c r="B145" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C145" t="n">
         <v>16</v>
@@ -3826,6 +5843,30 @@
       </c>
       <c r="E145" t="n">
         <v>182</v>
+      </c>
+      <c r="F145" t="s">
+        <v>14</v>
+      </c>
+      <c r="G145" t="s">
+        <v>15</v>
+      </c>
+      <c r="H145" t="s">
+        <v>16</v>
+      </c>
+      <c r="I145" t="n">
+        <v>82</v>
+      </c>
+      <c r="J145" t="n">
+        <v>62</v>
+      </c>
+      <c r="K145" t="n">
+        <v>90</v>
+      </c>
+      <c r="L145" t="n">
+        <v>34</v>
+      </c>
+      <c r="M145" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3833,7 +5874,7 @@
         <v>8</v>
       </c>
       <c r="B146" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C146" t="n">
         <v>17</v>
@@ -3850,7 +5891,7 @@
         <v>8</v>
       </c>
       <c r="B147" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C147" t="n">
         <v>17</v>
@@ -3867,7 +5908,7 @@
         <v>8</v>
       </c>
       <c r="B148" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C148" t="n">
         <v>19</v>
@@ -3884,7 +5925,7 @@
         <v>8</v>
       </c>
       <c r="B149" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C149" t="n">
         <v>20</v>
@@ -3901,7 +5942,7 @@
         <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
@@ -3918,7 +5959,7 @@
         <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="C151" t="n">
         <v>2</v>
@@ -3930,12 +5971,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:11">
       <c r="A152" t="n">
         <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C152" t="n">
         <v>3</v>
@@ -3946,13 +5987,31 @@
       <c r="E152" t="n">
         <v>178</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="F152" t="s">
+        <v>14</v>
+      </c>
+      <c r="G152" t="s">
+        <v>15</v>
+      </c>
+      <c r="H152" t="s">
+        <v>16</v>
+      </c>
+      <c r="I152" t="n">
+        <v>81</v>
+      </c>
+      <c r="J152" t="n">
+        <v>56</v>
+      </c>
+      <c r="K152" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" t="n">
         <v>9</v>
       </c>
       <c r="B153" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="C153" t="n">
         <v>4</v>
@@ -3962,6 +6021,30 @@
       </c>
       <c r="E153" t="n">
         <v>176</v>
+      </c>
+      <c r="F153" t="s">
+        <v>19</v>
+      </c>
+      <c r="G153" t="s">
+        <v>57</v>
+      </c>
+      <c r="H153" t="s">
+        <v>16</v>
+      </c>
+      <c r="I153" t="n">
+        <v>86</v>
+      </c>
+      <c r="J153" t="n">
+        <v>60</v>
+      </c>
+      <c r="K153" t="n">
+        <v>90</v>
+      </c>
+      <c r="L153" t="n">
+        <v>34</v>
+      </c>
+      <c r="M153" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3969,7 +6052,7 @@
         <v>9</v>
       </c>
       <c r="B154" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="C154" t="n">
         <v>4</v>
@@ -3986,7 +6069,7 @@
         <v>9</v>
       </c>
       <c r="B155" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C155" t="n">
         <v>4</v>
@@ -4003,7 +6086,7 @@
         <v>9</v>
       </c>
       <c r="B156" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C156" t="n">
         <v>7</v>
@@ -4015,12 +6098,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:13">
       <c r="A157" t="n">
         <v>9</v>
       </c>
       <c r="B157" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C157" t="n">
         <v>7</v>
@@ -4030,6 +6113,30 @@
       </c>
       <c r="E157" t="n">
         <v>178</v>
+      </c>
+      <c r="F157" t="s">
+        <v>14</v>
+      </c>
+      <c r="G157" t="s">
+        <v>21</v>
+      </c>
+      <c r="H157" t="s">
+        <v>16</v>
+      </c>
+      <c r="I157" t="n">
+        <v>90</v>
+      </c>
+      <c r="J157" t="n">
+        <v>64</v>
+      </c>
+      <c r="K157" t="n">
+        <v>92</v>
+      </c>
+      <c r="L157" t="n">
+        <v>34</v>
+      </c>
+      <c r="M157" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4037,7 +6144,7 @@
         <v>9</v>
       </c>
       <c r="B158" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="C158" t="n">
         <v>9</v>
@@ -4054,7 +6161,7 @@
         <v>9</v>
       </c>
       <c r="B159" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="C159" t="n">
         <v>10</v>
@@ -4071,7 +6178,7 @@
         <v>9</v>
       </c>
       <c r="B160" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C160" t="n">
         <v>11</v>
@@ -4088,7 +6195,7 @@
         <v>9</v>
       </c>
       <c r="B161" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C161" t="n">
         <v>12</v>
@@ -4105,7 +6212,7 @@
         <v>9</v>
       </c>
       <c r="B162" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C162" t="n">
         <v>13</v>
@@ -4122,7 +6229,7 @@
         <v>9</v>
       </c>
       <c r="B163" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="C163" t="n">
         <v>14</v>
@@ -4139,7 +6246,7 @@
         <v>9</v>
       </c>
       <c r="B164" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="C164" t="n">
         <v>14</v>
@@ -4156,7 +6263,7 @@
         <v>9</v>
       </c>
       <c r="B165" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="C165" t="n">
         <v>16</v>
@@ -4173,7 +6280,7 @@
         <v>9</v>
       </c>
       <c r="B166" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="C166" t="n">
         <v>17</v>
@@ -4190,7 +6297,7 @@
         <v>9</v>
       </c>
       <c r="B167" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C167" t="n">
         <v>18</v>
@@ -4207,7 +6314,7 @@
         <v>9</v>
       </c>
       <c r="B168" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="C168" t="n">
         <v>19</v>
@@ -4224,7 +6331,7 @@
         <v>9</v>
       </c>
       <c r="B169" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="C169" t="n">
         <v>20</v>
@@ -4241,7 +6348,7 @@
         <v>9</v>
       </c>
       <c r="B170" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C170" t="n">
         <v>20</v>
@@ -4258,7 +6365,7 @@
         <v>9</v>
       </c>
       <c r="B171" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="C171" t="n">
         <v>20</v>
@@ -4275,7 +6382,7 @@
         <v>9</v>
       </c>
       <c r="B172" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C172" t="n">
         <v>20</v>
@@ -4292,7 +6399,7 @@
         <v>9</v>
       </c>
       <c r="B173" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="C173" t="n">
         <v>24</v>
@@ -4309,7 +6416,7 @@
         <v>9</v>
       </c>
       <c r="B174" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C174" t="n">
         <v>24</v>
@@ -4323,7 +6430,7 @@
         <v>10</v>
       </c>
       <c r="B175" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="C175" t="n">
         <v>1</v>
@@ -4340,7 +6447,7 @@
         <v>10</v>
       </c>
       <c r="B176" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C176" t="n">
         <v>2</v>
@@ -4357,7 +6464,7 @@
         <v>10</v>
       </c>
       <c r="B177" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="C177" t="n">
         <v>3</v>
@@ -4374,7 +6481,7 @@
         <v>10</v>
       </c>
       <c r="B178" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C178" t="n">
         <v>4</v>
@@ -4391,7 +6498,7 @@
         <v>10</v>
       </c>
       <c r="B179" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C179" t="n">
         <v>5</v>
@@ -4408,7 +6515,7 @@
         <v>10</v>
       </c>
       <c r="B180" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C180" t="n">
         <v>6</v>
@@ -4425,7 +6532,7 @@
         <v>10</v>
       </c>
       <c r="B181" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="C181" t="n">
         <v>6</v>
@@ -4442,7 +6549,7 @@
         <v>10</v>
       </c>
       <c r="B182" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C182" t="n">
         <v>8</v>
@@ -4459,7 +6566,7 @@
         <v>10</v>
       </c>
       <c r="B183" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="C183" t="n">
         <v>9</v>
@@ -4476,7 +6583,7 @@
         <v>10</v>
       </c>
       <c r="B184" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C184" t="n">
         <v>9</v>
@@ -4493,7 +6600,7 @@
         <v>10</v>
       </c>
       <c r="B185" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C185" t="n">
         <v>11</v>
@@ -4510,7 +6617,7 @@
         <v>10</v>
       </c>
       <c r="B186" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="C186" t="n">
         <v>11</v>
@@ -4527,7 +6634,7 @@
         <v>10</v>
       </c>
       <c r="B187" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C187" t="n">
         <v>13</v>
@@ -4544,7 +6651,7 @@
         <v>10</v>
       </c>
       <c r="B188" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C188" t="n">
         <v>14</v>
@@ -4561,7 +6668,7 @@
         <v>10</v>
       </c>
       <c r="B189" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="C189" t="n">
         <v>14</v>
@@ -4578,7 +6685,7 @@
         <v>10</v>
       </c>
       <c r="B190" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C190" t="n">
         <v>16</v>
@@ -4595,7 +6702,7 @@
         <v>10</v>
       </c>
       <c r="B191" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="C191" t="n">
         <v>16</v>
@@ -4612,7 +6719,7 @@
         <v>10</v>
       </c>
       <c r="B192" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C192" t="n">
         <v>16</v>
@@ -4629,7 +6736,7 @@
         <v>10</v>
       </c>
       <c r="B193" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="C193" t="n">
         <v>19</v>
@@ -4646,7 +6753,7 @@
         <v>10</v>
       </c>
       <c r="B194" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C194" t="n">
         <v>20</v>
@@ -4663,7 +6770,7 @@
         <v>10</v>
       </c>
       <c r="B195" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C195" t="n">
         <v>20</v>
@@ -4677,7 +6784,7 @@
         <v>10</v>
       </c>
       <c r="B196" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C196" t="n">
         <v>22</v>
@@ -4694,7 +6801,7 @@
         <v>10</v>
       </c>
       <c r="B197" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="C197" t="n">
         <v>22</v>
@@ -4711,7 +6818,7 @@
         <v>11</v>
       </c>
       <c r="B198" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C198" t="n">
         <v>1</v>
@@ -4723,12 +6830,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:13">
       <c r="A199" t="n">
         <v>11</v>
       </c>
       <c r="B199" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="C199" t="n">
         <v>2</v>
@@ -4738,6 +6845,30 @@
       </c>
       <c r="E199" t="n">
         <v>177</v>
+      </c>
+      <c r="F199" t="s">
+        <v>139</v>
+      </c>
+      <c r="G199" t="s">
+        <v>21</v>
+      </c>
+      <c r="H199" t="s">
+        <v>16</v>
+      </c>
+      <c r="I199" t="n">
+        <v>81</v>
+      </c>
+      <c r="J199" t="n">
+        <v>60</v>
+      </c>
+      <c r="K199" t="n">
+        <v>90</v>
+      </c>
+      <c r="L199" t="n">
+        <v>34</v>
+      </c>
+      <c r="M199" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4745,7 +6876,7 @@
         <v>11</v>
       </c>
       <c r="B200" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="C200" t="n">
         <v>3</v>
@@ -4757,12 +6888,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:13">
       <c r="A201" t="n">
         <v>11</v>
       </c>
       <c r="B201" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="C201" t="n">
         <v>4</v>
@@ -4772,6 +6903,27 @@
       </c>
       <c r="E201" t="n">
         <v>177</v>
+      </c>
+      <c r="F201" t="s">
+        <v>19</v>
+      </c>
+      <c r="G201" t="s">
+        <v>57</v>
+      </c>
+      <c r="H201" t="s">
+        <v>16</v>
+      </c>
+      <c r="I201" t="n">
+        <v>82</v>
+      </c>
+      <c r="J201" t="n">
+        <v>65</v>
+      </c>
+      <c r="K201" t="n">
+        <v>89</v>
+      </c>
+      <c r="M201" t="n">
+        <v>39.5</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4779,7 +6931,7 @@
         <v>11</v>
       </c>
       <c r="B202" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C202" t="n">
         <v>5</v>
@@ -4796,7 +6948,7 @@
         <v>11</v>
       </c>
       <c r="B203" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="C203" t="n">
         <v>6</v>
@@ -4813,7 +6965,7 @@
         <v>11</v>
       </c>
       <c r="B204" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="C204" t="n">
         <v>7</v>
@@ -4830,7 +6982,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="C205" t="n">
         <v>8</v>
@@ -4847,7 +6999,7 @@
         <v>11</v>
       </c>
       <c r="B206" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="C206" t="n">
         <v>9</v>
@@ -4864,7 +7016,7 @@
         <v>11</v>
       </c>
       <c r="B207" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="C207" t="n">
         <v>10</v>
@@ -4881,7 +7033,7 @@
         <v>11</v>
       </c>
       <c r="B208" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C208" t="n">
         <v>11</v>
@@ -4898,7 +7050,7 @@
         <v>11</v>
       </c>
       <c r="B209" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="C209" t="n">
         <v>12</v>
@@ -4915,7 +7067,7 @@
         <v>11</v>
       </c>
       <c r="B210" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="C210" t="n">
         <v>13</v>
@@ -4927,12 +7079,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:13">
       <c r="A211" t="n">
         <v>11</v>
       </c>
       <c r="B211" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="C211" t="n">
         <v>14</v>
@@ -4943,13 +7095,34 @@
       <c r="E211" t="n">
         <v>174</v>
       </c>
-    </row>
-    <row r="212" spans="1:5">
+      <c r="F211" t="s">
+        <v>19</v>
+      </c>
+      <c r="G211" t="s">
+        <v>57</v>
+      </c>
+      <c r="H211" t="s">
+        <v>73</v>
+      </c>
+      <c r="I211" t="n">
+        <v>81</v>
+      </c>
+      <c r="J211" t="n">
+        <v>63</v>
+      </c>
+      <c r="K211" t="n">
+        <v>91</v>
+      </c>
+      <c r="M211" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13">
       <c r="A212" t="n">
         <v>11</v>
       </c>
       <c r="B212" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C212" t="n">
         <v>14</v>
@@ -4960,13 +7133,37 @@
       <c r="E212" t="n">
         <v>176</v>
       </c>
-    </row>
-    <row r="213" spans="1:5">
+      <c r="F212" t="s">
+        <v>14</v>
+      </c>
+      <c r="G212" t="s">
+        <v>15</v>
+      </c>
+      <c r="H212" t="s">
+        <v>16</v>
+      </c>
+      <c r="I212" t="n">
+        <v>85</v>
+      </c>
+      <c r="J212" t="n">
+        <v>60</v>
+      </c>
+      <c r="K212" t="n">
+        <v>95</v>
+      </c>
+      <c r="L212" t="n">
+        <v>34</v>
+      </c>
+      <c r="M212" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13">
       <c r="A213" t="n">
         <v>11</v>
       </c>
       <c r="B213" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="C213" t="n">
         <v>16</v>
@@ -4977,13 +7174,34 @@
       <c r="E213" t="n">
         <v>175</v>
       </c>
-    </row>
-    <row r="214" spans="1:5">
+      <c r="F213" t="s">
+        <v>14</v>
+      </c>
+      <c r="G213" t="s">
+        <v>21</v>
+      </c>
+      <c r="H213" t="s">
+        <v>16</v>
+      </c>
+      <c r="I213" t="n">
+        <v>87</v>
+      </c>
+      <c r="J213" t="n">
+        <v>65</v>
+      </c>
+      <c r="K213" t="n">
+        <v>98</v>
+      </c>
+      <c r="M213" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13">
       <c r="A214" t="n">
         <v>11</v>
       </c>
       <c r="B214" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="C214" t="n">
         <v>16</v>
@@ -4994,13 +7212,34 @@
       <c r="E214" t="n">
         <v>176</v>
       </c>
-    </row>
-    <row r="215" spans="1:5">
+      <c r="F214" t="s">
+        <v>14</v>
+      </c>
+      <c r="G214" t="s">
+        <v>57</v>
+      </c>
+      <c r="H214" t="s">
+        <v>16</v>
+      </c>
+      <c r="I214" t="n">
+        <v>85</v>
+      </c>
+      <c r="J214" t="n">
+        <v>69</v>
+      </c>
+      <c r="K214" t="n">
+        <v>90</v>
+      </c>
+      <c r="M214" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12">
       <c r="A215" t="n">
         <v>11</v>
       </c>
       <c r="B215" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="C215" t="n">
         <v>18</v>
@@ -5010,6 +7249,27 @@
       </c>
       <c r="E215" t="n">
         <v>176</v>
+      </c>
+      <c r="F215" t="s">
+        <v>14</v>
+      </c>
+      <c r="G215" t="s">
+        <v>15</v>
+      </c>
+      <c r="H215" t="s">
+        <v>16</v>
+      </c>
+      <c r="I215" t="n">
+        <v>84</v>
+      </c>
+      <c r="J215" t="n">
+        <v>63</v>
+      </c>
+      <c r="K215" t="n">
+        <v>91</v>
+      </c>
+      <c r="L215" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5017,7 +7277,7 @@
         <v>11</v>
       </c>
       <c r="B216" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="C216" t="n">
         <v>19</v>
@@ -5034,7 +7294,7 @@
         <v>11</v>
       </c>
       <c r="B217" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="C217" t="n">
         <v>19</v>
@@ -5051,7 +7311,7 @@
         <v>11</v>
       </c>
       <c r="B218" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="C218" t="n">
         <v>21</v>
@@ -5068,7 +7328,7 @@
         <v>11</v>
       </c>
       <c r="B219" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="C219" t="n">
         <v>21</v>
@@ -5085,7 +7345,7 @@
         <v>11</v>
       </c>
       <c r="B220" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="C220" t="n">
         <v>21</v>
@@ -5102,7 +7362,7 @@
         <v>11</v>
       </c>
       <c r="B221" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="C221" t="n">
         <v>24</v>
@@ -5111,12 +7371,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:13">
       <c r="A222" t="n">
         <v>12</v>
       </c>
       <c r="B222" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C222" t="n">
         <v>1</v>
@@ -5127,13 +7387,37 @@
       <c r="E222" t="n">
         <v>181</v>
       </c>
-    </row>
-    <row r="223" spans="1:5">
+      <c r="F222" t="s">
+        <v>251</v>
+      </c>
+      <c r="G222" t="s">
+        <v>15</v>
+      </c>
+      <c r="H222" t="s">
+        <v>16</v>
+      </c>
+      <c r="I222" t="n">
+        <v>80</v>
+      </c>
+      <c r="J222" t="n">
+        <v>58</v>
+      </c>
+      <c r="K222" t="n">
+        <v>87</v>
+      </c>
+      <c r="L222" t="n">
+        <v>34</v>
+      </c>
+      <c r="M222" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13">
       <c r="A223" t="n">
         <v>12</v>
       </c>
       <c r="B223" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="C223" t="n">
         <v>2</v>
@@ -5144,13 +7428,37 @@
       <c r="E223" t="n">
         <v>178</v>
       </c>
-    </row>
-    <row r="224" spans="1:5">
+      <c r="F223" t="s">
+        <v>14</v>
+      </c>
+      <c r="G223" t="s">
+        <v>15</v>
+      </c>
+      <c r="H223" t="s">
+        <v>16</v>
+      </c>
+      <c r="I223" t="n">
+        <v>79</v>
+      </c>
+      <c r="J223" t="n">
+        <v>61</v>
+      </c>
+      <c r="K223" t="n">
+        <v>91</v>
+      </c>
+      <c r="L223" t="n">
+        <v>36</v>
+      </c>
+      <c r="M223" t="n">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13">
       <c r="A224" t="n">
         <v>12</v>
       </c>
       <c r="B224" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="C224" t="n">
         <v>3</v>
@@ -5160,6 +7468,30 @@
       </c>
       <c r="E224" t="n">
         <v>183</v>
+      </c>
+      <c r="F224" t="s">
+        <v>19</v>
+      </c>
+      <c r="G224" t="s">
+        <v>36</v>
+      </c>
+      <c r="H224" t="s">
+        <v>16</v>
+      </c>
+      <c r="I224" t="n">
+        <v>86</v>
+      </c>
+      <c r="J224" t="n">
+        <v>67</v>
+      </c>
+      <c r="K224" t="n">
+        <v>96</v>
+      </c>
+      <c r="L224" t="n">
+        <v>36</v>
+      </c>
+      <c r="M224" t="n">
+        <v>41.5</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5167,7 +7499,7 @@
         <v>12</v>
       </c>
       <c r="B225" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="C225" t="n">
         <v>4</v>
@@ -5184,7 +7516,7 @@
         <v>12</v>
       </c>
       <c r="B226" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="C226" t="n">
         <v>5</v>
@@ -5196,12 +7528,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:13">
       <c r="A227" t="n">
         <v>12</v>
       </c>
       <c r="B227" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="C227" t="n">
         <v>5</v>
@@ -5211,6 +7543,30 @@
       </c>
       <c r="E227" t="n">
         <v>179</v>
+      </c>
+      <c r="F227" t="s">
+        <v>19</v>
+      </c>
+      <c r="G227" t="s">
+        <v>57</v>
+      </c>
+      <c r="H227" t="s">
+        <v>16</v>
+      </c>
+      <c r="I227" t="n">
+        <v>84</v>
+      </c>
+      <c r="J227" t="n">
+        <v>64</v>
+      </c>
+      <c r="K227" t="n">
+        <v>95</v>
+      </c>
+      <c r="L227" t="n">
+        <v>36</v>
+      </c>
+      <c r="M227" t="n">
+        <v>40.5</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5218,7 +7574,7 @@
         <v>12</v>
       </c>
       <c r="B228" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="C228" t="n">
         <v>7</v>
@@ -5235,7 +7591,7 @@
         <v>12</v>
       </c>
       <c r="B229" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="C229" t="n">
         <v>8</v>
@@ -5252,7 +7608,7 @@
         <v>12</v>
       </c>
       <c r="B230" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C230" t="n">
         <v>9</v>
@@ -5269,7 +7625,7 @@
         <v>12</v>
       </c>
       <c r="B231" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="C231" t="n">
         <v>10</v>
@@ -5286,7 +7642,7 @@
         <v>12</v>
       </c>
       <c r="B232" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="C232" t="n">
         <v>11</v>
@@ -5303,7 +7659,7 @@
         <v>12</v>
       </c>
       <c r="B233" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="C233" t="n">
         <v>12</v>
@@ -5312,12 +7668,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:13">
       <c r="A234" t="n">
         <v>12</v>
       </c>
       <c r="B234" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="C234" t="n">
         <v>13</v>
@@ -5328,13 +7684,37 @@
       <c r="E234" t="n">
         <v>180</v>
       </c>
-    </row>
-    <row r="235" spans="1:5">
+      <c r="F234" t="s">
+        <v>35</v>
+      </c>
+      <c r="G234" t="s">
+        <v>35</v>
+      </c>
+      <c r="H234" t="s">
+        <v>16</v>
+      </c>
+      <c r="I234" t="n">
+        <v>84</v>
+      </c>
+      <c r="J234" t="n">
+        <v>65</v>
+      </c>
+      <c r="K234" t="n">
+        <v>92</v>
+      </c>
+      <c r="L234" t="n">
+        <v>36</v>
+      </c>
+      <c r="M234" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
       <c r="A235" t="n">
         <v>12</v>
       </c>
       <c r="B235" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="C235" t="n">
         <v>14</v>
@@ -5345,13 +7725,31 @@
       <c r="E235" t="n">
         <v>177</v>
       </c>
-    </row>
-    <row r="236" spans="1:5">
+      <c r="F235" t="s">
+        <v>19</v>
+      </c>
+      <c r="G235" t="s">
+        <v>21</v>
+      </c>
+      <c r="H235" t="s">
+        <v>16</v>
+      </c>
+      <c r="I235" t="n">
+        <v>81</v>
+      </c>
+      <c r="J235" t="n">
+        <v>62</v>
+      </c>
+      <c r="K235" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13">
       <c r="A236" t="n">
         <v>12</v>
       </c>
       <c r="B236" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="C236" t="n">
         <v>15</v>
@@ -5361,6 +7759,30 @@
       </c>
       <c r="E236" t="n">
         <v>177</v>
+      </c>
+      <c r="F236" t="s">
+        <v>19</v>
+      </c>
+      <c r="G236" t="s">
+        <v>21</v>
+      </c>
+      <c r="H236" t="s">
+        <v>16</v>
+      </c>
+      <c r="I236" t="n">
+        <v>83</v>
+      </c>
+      <c r="J236" t="n">
+        <v>61</v>
+      </c>
+      <c r="K236" t="n">
+        <v>91</v>
+      </c>
+      <c r="L236" t="n">
+        <v>34</v>
+      </c>
+      <c r="M236" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5368,7 +7790,7 @@
         <v>12</v>
       </c>
       <c r="B237" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="C237" t="n">
         <v>16</v>
@@ -5385,7 +7807,7 @@
         <v>12</v>
       </c>
       <c r="B238" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="C238" t="n">
         <v>17</v>
@@ -5397,12 +7819,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:13">
       <c r="A239" t="n">
         <v>12</v>
       </c>
       <c r="B239" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="C239" t="n">
         <v>18</v>
@@ -5413,13 +7835,37 @@
       <c r="E239" t="n">
         <v>177</v>
       </c>
-    </row>
-    <row r="240" spans="1:5">
+      <c r="F239" t="s">
+        <v>19</v>
+      </c>
+      <c r="G239" t="s">
+        <v>57</v>
+      </c>
+      <c r="H239" t="s">
+        <v>16</v>
+      </c>
+      <c r="I239" t="n">
+        <v>86</v>
+      </c>
+      <c r="J239" t="n">
+        <v>64</v>
+      </c>
+      <c r="K239" t="n">
+        <v>92</v>
+      </c>
+      <c r="L239" t="n">
+        <v>36</v>
+      </c>
+      <c r="M239" t="n">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13">
       <c r="A240" t="n">
         <v>12</v>
       </c>
       <c r="B240" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="C240" t="n">
         <v>19</v>
@@ -5430,13 +7876,37 @@
       <c r="E240" t="n">
         <v>174</v>
       </c>
-    </row>
-    <row r="241" spans="1:5">
+      <c r="F240" t="s">
+        <v>35</v>
+      </c>
+      <c r="G240" t="s">
+        <v>35</v>
+      </c>
+      <c r="H240" t="s">
+        <v>73</v>
+      </c>
+      <c r="I240" t="n">
+        <v>84</v>
+      </c>
+      <c r="J240" t="n">
+        <v>64</v>
+      </c>
+      <c r="K240" t="n">
+        <v>94</v>
+      </c>
+      <c r="L240" t="n">
+        <v>36</v>
+      </c>
+      <c r="M240" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11">
       <c r="A241" t="n">
         <v>12</v>
       </c>
       <c r="B241" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="C241" t="n">
         <v>20</v>
@@ -5446,6 +7916,24 @@
       </c>
       <c r="E241" t="n">
         <v>180</v>
+      </c>
+      <c r="F241" t="s">
+        <v>19</v>
+      </c>
+      <c r="G241" t="s">
+        <v>15</v>
+      </c>
+      <c r="H241" t="s">
+        <v>16</v>
+      </c>
+      <c r="I241" t="n">
+        <v>84</v>
+      </c>
+      <c r="J241" t="n">
+        <v>64</v>
+      </c>
+      <c r="K241" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5453,7 +7941,7 @@
         <v>12</v>
       </c>
       <c r="B242" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="C242" t="n">
         <v>21</v>
@@ -5467,7 +7955,7 @@
         <v>12</v>
       </c>
       <c r="B243" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="C243" t="n">
         <v>21</v>
@@ -5481,7 +7969,7 @@
         <v>12</v>
       </c>
       <c r="B244" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="C244" t="n">
         <v>21</v>
@@ -5495,7 +7983,7 @@
         <v>12</v>
       </c>
       <c r="B245" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="C245" t="n">
         <v>24</v>
@@ -5509,7 +7997,7 @@
         <v>12</v>
       </c>
       <c r="B246" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="C246" t="n">
         <v>25</v>
@@ -5526,7 +8014,7 @@
         <v>12</v>
       </c>
       <c r="B247" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="C247" t="n">
         <v>25</v>
@@ -5540,7 +8028,7 @@
         <v>12</v>
       </c>
       <c r="B248" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="C248" t="n">
         <v>27</v>
@@ -5549,29 +8037,23 @@
         <v>19</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:4">
       <c r="A249" t="n">
         <v>12</v>
       </c>
       <c r="B249" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="D249" t="n">
         <v>19</v>
       </c>
-      <c r="G249"/>
-      <c r="H249"/>
-      <c r="I249"/>
-      <c r="J249"/>
-      <c r="L249"/>
-      <c r="M249"/>
     </row>
     <row r="250" spans="1:13">
       <c r="A250" t="n">
         <v>13</v>
       </c>
       <c r="B250" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="C250" t="n">
         <v>1</v>
@@ -5579,19 +8061,40 @@
       <c r="D250" t="n">
         <v>17</v>
       </c>
-      <c r="G250"/>
-      <c r="H250"/>
-      <c r="I250"/>
-      <c r="J250"/>
-      <c r="L250"/>
-      <c r="M250"/>
+      <c r="E250" t="n">
+        <v>180</v>
+      </c>
+      <c r="F250" t="s">
+        <v>72</v>
+      </c>
+      <c r="G250" t="s">
+        <v>35</v>
+      </c>
+      <c r="H250" t="s">
+        <v>73</v>
+      </c>
+      <c r="I250" t="n">
+        <v>88</v>
+      </c>
+      <c r="J250" t="n">
+        <v>63</v>
+      </c>
+      <c r="K250" t="n">
+        <v>90</v>
+      </c>
+      <c r="L250" t="n">
+        <v>34</v>
+      </c>
+      <c r="M250" t="n">
+        <v>40.5</v>
+      </c>
     </row>
     <row r="251" spans="1:13">
       <c r="A251" t="n">
         <v>13</v>
       </c>
       <c r="B251" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="C251" t="n">
         <v>2</v>
@@ -5599,19 +8102,40 @@
       <c r="D251" t="n">
         <v>19</v>
       </c>
-      <c r="G251"/>
-      <c r="H251"/>
-      <c r="I251"/>
-      <c r="J251"/>
-      <c r="L251"/>
-      <c r="M251"/>
+      <c r="E251" t="n">
+        <v>173</v>
+      </c>
+      <c r="F251" t="s">
+        <v>35</v>
+      </c>
+      <c r="G251" t="s">
+        <v>57</v>
+      </c>
+      <c r="H251" t="s">
+        <v>48</v>
+      </c>
+      <c r="I251" t="n">
+        <v>83</v>
+      </c>
+      <c r="J251" t="n">
+        <v>64</v>
+      </c>
+      <c r="K251" t="n">
+        <v>89</v>
+      </c>
+      <c r="L251" t="n">
+        <v>34</v>
+      </c>
+      <c r="M251" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="252" spans="1:13">
       <c r="A252" t="n">
         <v>13</v>
       </c>
       <c r="B252" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="C252" t="n">
         <v>3</v>
@@ -5619,20 +8143,40 @@
       <c r="D252" t="n">
         <v>22</v>
       </c>
-      <c r="G252"/>
-      <c r="H252"/>
-      <c r="I252"/>
-      <c r="J252"/>
-      <c r="K252"/>
-      <c r="L252"/>
-      <c r="M252"/>
+      <c r="E252" t="n">
+        <v>178</v>
+      </c>
+      <c r="F252" t="s">
+        <v>139</v>
+      </c>
+      <c r="G252" t="s">
+        <v>21</v>
+      </c>
+      <c r="H252" t="s">
+        <v>16</v>
+      </c>
+      <c r="I252" t="n">
+        <v>98</v>
+      </c>
+      <c r="J252" t="n">
+        <v>69</v>
+      </c>
+      <c r="K252" t="n">
+        <v>88</v>
+      </c>
+      <c r="L252" t="n">
+        <v>36</v>
+      </c>
+      <c r="M252" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="253" spans="1:13">
       <c r="A253" t="n">
         <v>13</v>
       </c>
       <c r="B253" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C253" t="n">
         <v>4</v>
@@ -5643,19 +8187,37 @@
       <c r="E253" t="n">
         <v>180</v>
       </c>
-      <c r="G253"/>
-      <c r="H253"/>
-      <c r="I253"/>
-      <c r="J253"/>
-      <c r="L253"/>
-      <c r="M253"/>
+      <c r="F253" t="s">
+        <v>19</v>
+      </c>
+      <c r="G253" t="s">
+        <v>36</v>
+      </c>
+      <c r="H253" t="s">
+        <v>16</v>
+      </c>
+      <c r="I253" t="n">
+        <v>85</v>
+      </c>
+      <c r="J253" t="n">
+        <v>72</v>
+      </c>
+      <c r="K253" t="n">
+        <v>98</v>
+      </c>
+      <c r="L253" t="n">
+        <v>36</v>
+      </c>
+      <c r="M253" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="254" spans="1:13">
       <c r="A254" t="n">
         <v>13</v>
       </c>
       <c r="B254" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="C254" t="n">
         <v>5</v>
@@ -5663,20 +8225,40 @@
       <c r="D254" t="n">
         <v>23</v>
       </c>
-      <c r="G254"/>
-      <c r="H254"/>
-      <c r="I254"/>
-      <c r="J254"/>
-      <c r="K254"/>
-      <c r="L254"/>
-      <c r="M254"/>
+      <c r="E254" t="n">
+        <v>178</v>
+      </c>
+      <c r="F254" t="s">
+        <v>19</v>
+      </c>
+      <c r="G254" t="s">
+        <v>15</v>
+      </c>
+      <c r="H254" t="s">
+        <v>16</v>
+      </c>
+      <c r="I254" t="n">
+        <v>83</v>
+      </c>
+      <c r="J254" t="n">
+        <v>60</v>
+      </c>
+      <c r="K254" t="n">
+        <v>89</v>
+      </c>
+      <c r="L254" t="n">
+        <v>34</v>
+      </c>
+      <c r="M254" t="n">
+        <v>40.5</v>
+      </c>
     </row>
     <row r="255" spans="1:13">
       <c r="A255" t="n">
         <v>13</v>
       </c>
       <c r="B255" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="C255" t="n">
         <v>6</v>
@@ -5685,22 +8267,39 @@
         <v>17</v>
       </c>
       <c r="E255" t="n">
-        <v>183</v>
-      </c>
-      <c r="G255"/>
-      <c r="H255"/>
-      <c r="I255"/>
-      <c r="J255"/>
-      <c r="K255"/>
-      <c r="L255"/>
-      <c r="M255"/>
-    </row>
-    <row r="256" spans="1:13">
+        <v>184</v>
+      </c>
+      <c r="F255" t="s">
+        <v>14</v>
+      </c>
+      <c r="G255" t="s">
+        <v>54</v>
+      </c>
+      <c r="H255" t="s">
+        <v>16</v>
+      </c>
+      <c r="I255" t="n">
+        <v>75</v>
+      </c>
+      <c r="J255" t="n">
+        <v>65</v>
+      </c>
+      <c r="K255" t="n">
+        <v>95</v>
+      </c>
+      <c r="L255" t="n">
+        <v>36</v>
+      </c>
+      <c r="M255" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
       <c r="A256" t="n">
         <v>13</v>
       </c>
       <c r="B256" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="C256" t="n">
         <v>7</v>
@@ -5711,34 +8310,54 @@
       <c r="E256" t="n">
         <v>178</v>
       </c>
-      <c r="G256"/>
-      <c r="I256"/>
-      <c r="J256"/>
-      <c r="L256"/>
-      <c r="M256"/>
     </row>
     <row r="257" spans="1:13">
       <c r="A257" t="n">
         <v>13</v>
       </c>
       <c r="B257" t="s">
-        <v>272</v>
+        <v>286</v>
+      </c>
+      <c r="C257" t="n">
+        <v>7</v>
       </c>
       <c r="D257" t="n">
         <v>21</v>
       </c>
-      <c r="G257"/>
-      <c r="H257"/>
-      <c r="I257"/>
-      <c r="J257"/>
-      <c r="M257"/>
+      <c r="E257" t="n">
+        <v>175</v>
+      </c>
+      <c r="F257" t="s">
+        <v>35</v>
+      </c>
+      <c r="G257" t="s">
+        <v>21</v>
+      </c>
+      <c r="H257" t="s">
+        <v>16</v>
+      </c>
+      <c r="I257" t="n">
+        <v>80</v>
+      </c>
+      <c r="J257" t="n">
+        <v>60</v>
+      </c>
+      <c r="K257" t="n">
+        <v>90</v>
+      </c>
+      <c r="L257" t="n">
+        <v>34</v>
+      </c>
+      <c r="M257" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="258" spans="1:13">
       <c r="A258" t="n">
         <v>13</v>
       </c>
       <c r="B258" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="C258" t="n">
         <v>9</v>
@@ -5746,19 +8365,40 @@
       <c r="D258" t="n">
         <v>18</v>
       </c>
-      <c r="G258"/>
-      <c r="H258"/>
-      <c r="I258"/>
-      <c r="J258"/>
-      <c r="L258"/>
-      <c r="M258"/>
-    </row>
-    <row r="259" spans="1:13">
+      <c r="E258" t="n">
+        <v>174</v>
+      </c>
+      <c r="F258" t="s">
+        <v>14</v>
+      </c>
+      <c r="G258" t="s">
+        <v>81</v>
+      </c>
+      <c r="H258" t="s">
+        <v>16</v>
+      </c>
+      <c r="I258" t="n">
+        <v>75</v>
+      </c>
+      <c r="J258" t="n">
+        <v>59</v>
+      </c>
+      <c r="K258" t="n">
+        <v>91</v>
+      </c>
+      <c r="L258" t="n">
+        <v>32</v>
+      </c>
+      <c r="M258" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
       <c r="A259" t="n">
         <v>13</v>
       </c>
       <c r="B259" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="C259" t="n">
         <v>10</v>
@@ -5766,20 +8406,13 @@
       <c r="D259" t="n">
         <v>18</v>
       </c>
-      <c r="G259"/>
-      <c r="H259"/>
-      <c r="I259"/>
-      <c r="J259"/>
-      <c r="K259"/>
-      <c r="L259"/>
-      <c r="M259"/>
-    </row>
-    <row r="260" spans="1:13">
+    </row>
+    <row r="260" spans="1:5">
       <c r="A260" t="n">
         <v>13</v>
       </c>
       <c r="B260" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="C260" t="n">
         <v>11</v>
@@ -5790,35 +8423,27 @@
       <c r="E260" t="n">
         <v>180</v>
       </c>
-      <c r="G260"/>
-      <c r="I260"/>
-      <c r="J260"/>
-      <c r="L260"/>
-      <c r="M260"/>
-    </row>
-    <row r="261" spans="1:13">
+    </row>
+    <row r="261" spans="1:4">
       <c r="A261" t="n">
         <v>13</v>
       </c>
       <c r="B261" t="s">
-        <v>276</v>
+        <v>290</v>
+      </c>
+      <c r="C261" t="n">
+        <v>11</v>
       </c>
       <c r="D261" t="n">
         <v>24</v>
       </c>
-      <c r="G261"/>
-      <c r="H261"/>
-      <c r="I261"/>
-      <c r="J261"/>
-      <c r="L261"/>
-      <c r="M261"/>
     </row>
     <row r="262" spans="1:13">
       <c r="A262" t="n">
         <v>13</v>
       </c>
       <c r="B262" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C262" t="n">
         <v>13</v>
@@ -5826,10 +8451,13 @@
       <c r="D262" t="n">
         <v>20</v>
       </c>
+      <c r="E262"/>
+      <c r="F262"/>
       <c r="G262"/>
       <c r="H262"/>
       <c r="I262"/>
       <c r="J262"/>
+      <c r="K262"/>
       <c r="L262"/>
       <c r="M262"/>
     </row>
@@ -5838,7 +8466,7 @@
         <v>13</v>
       </c>
       <c r="B263" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="C263" t="n">
         <v>14</v>
@@ -5846,19 +8474,40 @@
       <c r="D263" t="n">
         <v>23</v>
       </c>
-      <c r="G263"/>
-      <c r="H263"/>
-      <c r="I263"/>
-      <c r="J263"/>
-      <c r="L263"/>
-      <c r="M263"/>
-    </row>
-    <row r="264" spans="1:13">
+      <c r="E263" t="n">
+        <v>176</v>
+      </c>
+      <c r="F263" t="s">
+        <v>72</v>
+      </c>
+      <c r="G263" t="s">
+        <v>54</v>
+      </c>
+      <c r="H263" t="s">
+        <v>73</v>
+      </c>
+      <c r="I263" t="n">
+        <v>86</v>
+      </c>
+      <c r="J263" t="n">
+        <v>60</v>
+      </c>
+      <c r="K263" t="n">
+        <v>88</v>
+      </c>
+      <c r="L263" t="n">
+        <v>34</v>
+      </c>
+      <c r="M263" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
       <c r="A264" t="n">
         <v>13</v>
       </c>
       <c r="B264" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="C264" t="n">
         <v>15</v>
@@ -5866,19 +8515,13 @@
       <c r="D264" t="n">
         <v>19</v>
       </c>
-      <c r="G264"/>
-      <c r="H264"/>
-      <c r="I264"/>
-      <c r="J264"/>
-      <c r="L264"/>
-      <c r="M264"/>
-    </row>
-    <row r="265" spans="1:13">
+    </row>
+    <row r="265" spans="1:4">
       <c r="A265" t="n">
         <v>13</v>
       </c>
       <c r="B265" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="C265" t="n">
         <v>16</v>
@@ -5886,19 +8529,13 @@
       <c r="D265" t="n">
         <v>23</v>
       </c>
-      <c r="G265"/>
-      <c r="H265"/>
-      <c r="I265"/>
-      <c r="J265"/>
-      <c r="L265"/>
-      <c r="M265"/>
-    </row>
-    <row r="266" spans="1:13">
+    </row>
+    <row r="266" spans="1:4">
       <c r="A266" t="n">
         <v>13</v>
       </c>
       <c r="B266" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="C266" t="n">
         <v>17</v>
@@ -5906,19 +8543,13 @@
       <c r="D266" t="n">
         <v>25</v>
       </c>
-      <c r="G266"/>
-      <c r="H266"/>
-      <c r="I266"/>
-      <c r="J266"/>
-      <c r="L266"/>
-      <c r="M266"/>
     </row>
     <row r="267" spans="1:13">
       <c r="A267" t="n">
         <v>13</v>
       </c>
       <c r="B267" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="C267" t="n">
         <v>18</v>
@@ -5926,19 +8557,40 @@
       <c r="D267" t="n">
         <v>18</v>
       </c>
-      <c r="G267"/>
-      <c r="H267"/>
-      <c r="I267"/>
-      <c r="J267"/>
-      <c r="L267"/>
-      <c r="M267"/>
-    </row>
-    <row r="268" spans="1:13">
+      <c r="E267" t="n">
+        <v>176</v>
+      </c>
+      <c r="F267" t="s">
+        <v>35</v>
+      </c>
+      <c r="G267" t="s">
+        <v>57</v>
+      </c>
+      <c r="H267" t="s">
+        <v>16</v>
+      </c>
+      <c r="I267" t="n">
+        <v>90</v>
+      </c>
+      <c r="J267" t="n">
+        <v>72</v>
+      </c>
+      <c r="K267" t="n">
+        <v>93</v>
+      </c>
+      <c r="L267" t="n">
+        <v>36</v>
+      </c>
+      <c r="M267" t="n">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
       <c r="A268" t="n">
         <v>13</v>
       </c>
       <c r="B268" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="C268" t="n">
         <v>19</v>
@@ -5946,35 +8598,54 @@
       <c r="D268" t="n">
         <v>22</v>
       </c>
-      <c r="G268"/>
-      <c r="I268"/>
-      <c r="J268"/>
-      <c r="L268"/>
-      <c r="M268"/>
     </row>
     <row r="269" spans="1:13">
       <c r="A269" t="n">
         <v>13</v>
       </c>
       <c r="B269" t="s">
-        <v>284</v>
+        <v>298</v>
+      </c>
+      <c r="C269" t="n">
+        <v>19</v>
       </c>
       <c r="D269" t="n">
         <v>21</v>
       </c>
-      <c r="G269"/>
-      <c r="H269"/>
-      <c r="I269"/>
-      <c r="J269"/>
-      <c r="L269"/>
-      <c r="M269"/>
-    </row>
-    <row r="270" spans="1:13">
+      <c r="E269" t="n">
+        <v>180</v>
+      </c>
+      <c r="F269" t="s">
+        <v>19</v>
+      </c>
+      <c r="G269" t="s">
+        <v>21</v>
+      </c>
+      <c r="H269" t="s">
+        <v>16</v>
+      </c>
+      <c r="I269" t="n">
+        <v>86</v>
+      </c>
+      <c r="J269" t="n">
+        <v>62</v>
+      </c>
+      <c r="K269" t="n">
+        <v>91</v>
+      </c>
+      <c r="L269" t="n">
+        <v>36</v>
+      </c>
+      <c r="M269" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
       <c r="A270" t="n">
         <v>13</v>
       </c>
       <c r="B270" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="C270" t="n">
         <v>21</v>
@@ -5982,19 +8653,13 @@
       <c r="D270" t="n">
         <v>19</v>
       </c>
-      <c r="G270"/>
-      <c r="H270"/>
-      <c r="I270"/>
-      <c r="J270"/>
-      <c r="L270"/>
-      <c r="M270"/>
-    </row>
-    <row r="271" spans="1:13">
+    </row>
+    <row r="271" spans="1:4">
       <c r="A271" t="n">
         <v>13</v>
       </c>
       <c r="B271" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="C271" t="n">
         <v>22</v>
@@ -6002,35 +8667,48 @@
       <c r="D271" t="n">
         <v>23</v>
       </c>
-      <c r="G271"/>
-      <c r="I271"/>
-      <c r="J271"/>
-      <c r="L271"/>
-      <c r="M271"/>
-    </row>
-    <row r="272" spans="1:13">
+    </row>
+    <row r="272" spans="1:11">
       <c r="A272" t="n">
         <v>13</v>
       </c>
       <c r="B272" t="s">
-        <v>287</v>
+        <v>301</v>
+      </c>
+      <c r="C272" t="n">
+        <v>22</v>
       </c>
       <c r="D272" t="n">
         <v>22</v>
       </c>
-      <c r="G272"/>
-      <c r="H272"/>
-      <c r="I272"/>
-      <c r="J272"/>
-      <c r="L272"/>
-      <c r="M272"/>
-    </row>
-    <row r="273" spans="1:13">
+      <c r="E272" t="n">
+        <v>174</v>
+      </c>
+      <c r="F272" t="s">
+        <v>35</v>
+      </c>
+      <c r="G272" t="s">
+        <v>57</v>
+      </c>
+      <c r="H272" t="s">
+        <v>48</v>
+      </c>
+      <c r="I272" t="n">
+        <v>84</v>
+      </c>
+      <c r="J272" t="n">
+        <v>64</v>
+      </c>
+      <c r="K272" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
       <c r="A273" t="n">
         <v>13</v>
       </c>
       <c r="B273" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="C273" t="n">
         <v>24</v>
@@ -6038,19 +8716,13 @@
       <c r="D273" t="n">
         <v>17</v>
       </c>
-      <c r="G273"/>
-      <c r="H273"/>
-      <c r="I273"/>
-      <c r="J273"/>
-      <c r="L273"/>
-      <c r="M273"/>
-    </row>
-    <row r="274" spans="1:13">
+    </row>
+    <row r="274" spans="1:4">
       <c r="A274" t="n">
         <v>13</v>
       </c>
       <c r="B274" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="C274" t="n">
         <v>25</v>
@@ -6058,19 +8730,13 @@
       <c r="D274" t="n">
         <v>17</v>
       </c>
-      <c r="G274"/>
-      <c r="H274"/>
-      <c r="I274"/>
-      <c r="J274"/>
-      <c r="L274"/>
-      <c r="M274"/>
-    </row>
-    <row r="275" spans="1:13">
+    </row>
+    <row r="275" spans="1:4">
       <c r="A275" t="n">
         <v>13</v>
       </c>
       <c r="B275" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="C275" t="n">
         <v>26</v>
@@ -6078,51 +8744,41 @@
       <c r="D275" t="n">
         <v>21</v>
       </c>
-      <c r="G275"/>
-      <c r="I275"/>
-      <c r="J275"/>
-      <c r="L275"/>
-      <c r="M275"/>
-    </row>
-    <row r="276" spans="1:13">
+    </row>
+    <row r="276" spans="1:4">
       <c r="A276" t="n">
         <v>13</v>
       </c>
       <c r="B276" t="s">
-        <v>291</v>
+        <v>305</v>
+      </c>
+      <c r="C276" t="n">
+        <v>26</v>
       </c>
       <c r="D276" t="n">
         <v>21</v>
       </c>
-      <c r="G276"/>
-      <c r="I276"/>
-      <c r="J276"/>
-      <c r="L276"/>
-      <c r="M276"/>
-    </row>
-    <row r="277" spans="1:13">
+    </row>
+    <row r="277" spans="1:4">
       <c r="A277" t="n">
         <v>13</v>
       </c>
       <c r="B277" t="s">
-        <v>292</v>
+        <v>306</v>
+      </c>
+      <c r="C277" t="n">
+        <v>26</v>
       </c>
       <c r="D277" t="n">
         <v>22</v>
       </c>
-      <c r="G277"/>
-      <c r="H277"/>
-      <c r="I277"/>
-      <c r="J277"/>
-      <c r="L277"/>
-      <c r="M277"/>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="n">
         <v>13</v>
       </c>
       <c r="B278" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="C278" t="n">
         <v>29</v>
@@ -6135,7 +8791,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1549574138" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1552223055" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6144,14 +8800,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1549574138" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1549574138" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1552223055" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1552223055" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1549574138" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1552223055" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
